--- a/biology/Botanique/Poire_de_Bollwiller/Poire_de_Bollwiller.xlsx
+++ b/biology/Botanique/Poire_de_Bollwiller/Poire_de_Bollwiller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">×Sorbopyrus auricularis
 La poire de Bollwiller (×Sorbopyrus irregularis (Münchh.) C.A.Wimm.) est une espèce de plantes à fleurs de la famille des Rosaceae C'est un arbre hybride issu du croisement intergénérique d'un poirier commun (Pyrus communis L.) et d'un alisier blanc (Sorbus aria).
@@ -515,7 +527,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce hybride a porté de nombreux noms au cours de ses 400 ans d'existence dont : 
 Azarolus pollvilleriana Borkh.
@@ -556,10 +570,12 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le très faible taux de graines viables atteste de son origine hybride mais il peut être greffé avec succès sur un poirier. 
-Cependant, Sorbopyrus auricularis var. bulbiformis est une variété issue d'un semis réussi de × Sorbopyrus auricularis. C'est une variété triploïde issue d'un gamète femelle diploïde de sorbopyrus et d'un gamète mâle de poirier haploïde. Cela explique que cette variété soit beaucoup plus proche du poirier[1].
+Cependant, Sorbopyrus auricularis var. bulbiformis est une variété issue d'un semis réussi de × Sorbopyrus auricularis. C'est une variété triploïde issue d'un gamète femelle diploïde de sorbopyrus et d'un gamète mâle de poirier haploïde. Cela explique que cette variété soit beaucoup plus proche du poirier.
 </t>
         </is>
       </c>
